--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_5_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_5_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.29000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.977212628652026e-07</v>
+        <v>3.11659195117997e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>2.977212628652026e-07</v>
+        <v>3.11659195117997e-08</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>35.36580725525709</v>
+        <v>45.06321250878253</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[23.003200204630247, 47.72841430588393]</t>
+          <t>[30.647067437304514, 59.479357580260555]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>7.040358878107611e-07</v>
+        <v>1.134454541418251e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>7.040358878107611e-07</v>
+        <v>1.134454541418251e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>1.528342372016656</v>
+        <v>1.452868674633118</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1006580868432705, 1.9560266571900415]</t>
+          <t>[1.0629212381515023, 1.8428161111147334]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>5.196729491174779e-09</v>
+        <v>1.833227791792069e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>5.196729491174779e-09</v>
+        <v>1.833227791792069e-09</v>
       </c>
       <c r="T2" t="n">
-        <v>47.45755287632684</v>
+        <v>53.91767366408676</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[39.710423685424175, 55.20468206722951]</t>
+          <t>[44.998492569914205, 62.83685475825931]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W2" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X2" t="n">
-        <v>18.38162162162189</v>
+        <v>18.61189189189216</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.72824824824849</v>
+        <v>17.10936936936961</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.03499499499529</v>
+        <v>20.1144144144147</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.29000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>5.41796178732401e-06</v>
+        <v>1.228682530607372e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>5.41796178732401e-06</v>
+        <v>1.228682530607372e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>46.21019541081117</v>
+        <v>40.94205782540948</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[26.959991239280896, 65.46039958234144]</t>
+          <t>[25.056615455124962, 56.82750019569399]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1.590881971780256e-05</v>
+        <v>4.857616459075231e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>1.590881971780256e-05</v>
+        <v>4.857616459075231e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>1.46544762419704</v>
+        <v>1.402552876377426</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9497106920761942, 1.9811845563178858]</t>
+          <t>[0.9497106920761942, 1.8553950606786573]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>8.033808160945455e-07</v>
+        <v>1.382440741881652e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>8.033808160945455e-07</v>
+        <v>1.382440741881652e-07</v>
       </c>
       <c r="T3" t="n">
-        <v>57.26182149727616</v>
+        <v>53.71703637616562</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[45.599005002829315, 68.924637991723]</t>
+          <t>[44.15400530187378, 63.28006745045745]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.37410132956029e-13</v>
+        <v>9.547918011776346e-15</v>
       </c>
       <c r="W3" t="n">
-        <v>7.37410132956029e-13</v>
+        <v>9.547918011776346e-15</v>
       </c>
       <c r="X3" t="n">
-        <v>18.62476476476504</v>
+        <v>18.80576576576603</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.63099099099124</v>
+        <v>17.06090090090114</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.61853853853884</v>
+        <v>20.55063063063092</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.29000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>7.87281351222191e-12</v>
+        <v>2.372602620592801e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>7.87281351222191e-12</v>
+        <v>2.372602620592801e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>53.59561113635948</v>
+        <v>36.44838983007277</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[40.381810029543914, 66.80941224317505]</t>
+          <t>[21.655098334084755, 51.241681326060785]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.957303208399708e-10</v>
+        <v>1.04235393507679e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.957303208399708e-10</v>
+        <v>1.04235393507679e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>1.289342330302118</v>
+        <v>1.33965812855781</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.0126054398958093, 1.566079220708426]</t>
+          <t>[0.8868159442565782, 1.7925003128590413]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.667510739546742e-12</v>
+        <v>3.599480593585724e-07</v>
       </c>
       <c r="S4" t="n">
-        <v>3.667510739546742e-12</v>
+        <v>3.599480593585724e-07</v>
       </c>
       <c r="T4" t="n">
-        <v>54.34962559764358</v>
+        <v>50.28820577700041</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[46.49388477894196, 62.2053664163452]</t>
+          <t>[41.48658995216078, 59.08982160184005]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-15</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>5.329070518200751e-15</v>
       </c>
       <c r="X4" t="n">
-        <v>19.30556556556585</v>
+        <v>19.04810810810838</v>
       </c>
       <c r="Y4" t="n">
-        <v>18.235735735736</v>
+        <v>17.30324324324349</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.3753953953957</v>
+        <v>20.79297297297327</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.29000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.243673166788199e-07</v>
+        <v>0.0002470650677788289</v>
       </c>
       <c r="I5" t="n">
-        <v>5.243673166788199e-07</v>
+        <v>0.0002470650677788289</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>41.00794115227182</v>
+        <v>29.47687110298406</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[24.49747544248921, 57.51840686205443]</t>
+          <t>[14.214234677446974, 44.73950752852114]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>9.121681269430582e-06</v>
+        <v>0.0003280203232594037</v>
       </c>
       <c r="O5" t="n">
-        <v>9.121681269430582e-06</v>
+        <v>0.0003280203232594037</v>
       </c>
       <c r="P5" t="n">
-        <v>1.289342330302118</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.8365001460008861, 1.7421845146033492]</t>
+          <t>[0.8365001460008861, 2.144710900648888]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>7.722731387715953e-07</v>
+        <v>3.555171645497346e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>7.722731387715953e-07</v>
+        <v>3.555171645497346e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>56.05847347300907</v>
+        <v>49.68960953094494</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[46.86520321920838, 65.25174372680976]</t>
+          <t>[40.29341486739973, 59.08580419449014]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>6.94999613415348e-14</v>
       </c>
       <c r="W5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>6.94999613415348e-14</v>
       </c>
       <c r="X5" t="n">
-        <v>19.30556556556585</v>
+        <v>18.46648648648675</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.55493493493519</v>
+        <v>15.94612612612636</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.05619619619651</v>
+        <v>20.98684684684715</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.29000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.992770874981176e-07</v>
+        <v>1.213344824613216e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>1.992770874981176e-07</v>
+        <v>1.213344824613216e-07</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>39.27503927435052</v>
+        <v>47.46210000351056</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[25.328202816148007, 53.22187573255303]</t>
+          <t>[29.44065947556595, 65.48354053145518]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>9.562038167931775e-07</v>
+        <v>3.317466590768703e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>9.562038167931775e-07</v>
+        <v>3.317466590768703e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.440289725069195</v>
+        <v>1.201289683354655</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.0251843894597332, 1.8553950606786564]</t>
+          <t>[0.7861843477451931, 1.6163950189641163]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.060418441944933e-08</v>
+        <v>5.604194521779959e-07</v>
       </c>
       <c r="S6" t="n">
-        <v>1.060418441944933e-08</v>
+        <v>5.604194521779959e-07</v>
       </c>
       <c r="T6" t="n">
-        <v>51.42401701611782</v>
+        <v>51.83197113636512</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[42.979423647278885, 59.86861038495676]</t>
+          <t>[41.87709380282223, 61.78684846990801]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>1.147970607462412e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>1.147970607462412e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>18.72202202202229</v>
+        <v>19.58126126126155</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.11727727727753</v>
+        <v>17.98180180180206</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.32676676676706</v>
+        <v>21.18072072072103</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.29000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>8.721994998128757e-06</v>
+        <v>4.606559578235192e-11</v>
       </c>
       <c r="I7" t="n">
-        <v>8.721994998128757e-06</v>
+        <v>4.606559578235192e-11</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>33.75520184970068</v>
+        <v>52.26371521301694</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[19.693547554498757, 47.816856144902594]</t>
+          <t>[37.45730554970193, 67.07012487633195]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.590775030368974e-05</v>
+        <v>7.015675151933465e-09</v>
       </c>
       <c r="O7" t="n">
-        <v>1.590775030368974e-05</v>
+        <v>7.015675151933465e-09</v>
       </c>
       <c r="P7" t="n">
-        <v>1.415131825941349</v>
+        <v>1.17613178422681</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.8868159442565782, 1.9434477076261194]</t>
+          <t>[0.874236994692656, 1.478026573760963]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.444807231105628e-06</v>
+        <v>5.768912014758598e-10</v>
       </c>
       <c r="S7" t="n">
-        <v>2.444807231105628e-06</v>
+        <v>5.768912014758598e-10</v>
       </c>
       <c r="T7" t="n">
-        <v>47.47883633232656</v>
+        <v>57.61123699244754</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[38.7395691659179, 56.21810349873522]</t>
+          <t>[49.511420135663165, 65.71105384923192]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.886579864025407e-14</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>2.886579864025407e-14</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>18.81927927927956</v>
+        <v>19.67819819819848</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.77687687687712</v>
+        <v>18.51495495495522</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.86168168168199</v>
+        <v>20.84144144144174</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.29000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.763723327969814e-08</v>
+        <v>0.0002055471145777643</v>
       </c>
       <c r="I8" t="n">
-        <v>2.763723327969814e-08</v>
+        <v>0.0002055471145777643</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>40.15607111194387</v>
+        <v>29.32693167281067</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[24.805663635595774, 55.506478588291955]</t>
+          <t>[12.798645897308468, 45.85521744831288]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.740125453122189e-06</v>
+        <v>0.0008536244965187123</v>
       </c>
       <c r="O8" t="n">
-        <v>3.740125453122189e-06</v>
+        <v>0.0008536244965187123</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9245527929483472</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.5471843060306547, 1.3019212798660398]</t>
+          <t>[0.5471843060306538, 1.7547634641672731]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.143533730907365e-05</v>
+        <v>0.0003829937357646696</v>
       </c>
       <c r="S8" t="n">
-        <v>1.143533730907365e-05</v>
+        <v>0.0003829937357646696</v>
       </c>
       <c r="T8" t="n">
-        <v>52.0404247174368</v>
+        <v>52.43879152898329</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.153401199631084, 59.927448235242515]</t>
+          <t>[43.22525078397597, 61.6523322739906]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>6.217248937900877e-15</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>6.217248937900877e-15</v>
       </c>
       <c r="X8" t="n">
-        <v>20.7157957957961</v>
+        <v>19.77513513513541</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.25693693693722</v>
+        <v>17.44864864864889</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.17465465465498</v>
+        <v>22.10162162162194</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.29000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>7.236775290131447e-09</v>
+        <v>8.283424379751381e-08</v>
       </c>
       <c r="I9" t="n">
-        <v>7.236775290131447e-09</v>
+        <v>8.283424379751381e-08</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>47.62653220574457</v>
+        <v>45.52511881258334</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[30.92615458799841, 64.32690982349072]</t>
+          <t>[28.137656002574225, 62.91258162259245]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>7.482807591330243e-07</v>
+        <v>3.681992286397318e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>7.482807591330243e-07</v>
+        <v>3.681992286397318e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>1.075500187715424</v>
+        <v>1.050342288587578</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.6981317007977319, 1.452868674633117]</t>
+          <t>[0.6352369529781168, 1.46544762419704]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>7.576995457725388e-07</v>
+        <v>6.671297531291032e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>7.576995457725388e-07</v>
+        <v>6.671297531291032e-06</v>
       </c>
       <c r="T9" t="n">
-        <v>46.86778732422883</v>
+        <v>51.81428741491254</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[37.98589250329503, 55.74968214516263]</t>
+          <t>[42.432833964546575, 61.19574086527851]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>1.665334536937735e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>7.460698725481052e-14</v>
+        <v>1.665334536937735e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>20.13225225225255</v>
+        <v>20.16288288288317</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.67339339339367</v>
+        <v>18.56342342342369</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.59111111111143</v>
+        <v>21.76234234234265</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.29000000000036</v>
+        <v>24.21000000000035</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>8.176314736374479e-09</v>
+        <v>1.587397535640633e-08</v>
       </c>
       <c r="I10" t="n">
-        <v>8.176314736374479e-09</v>
+        <v>1.587397535640633e-08</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>47.26732768436442</v>
+        <v>47.02724647304498</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[30.30411178305414, 64.2305435856747]</t>
+          <t>[30.058189060699412, 63.99630388539055]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.170935400196527e-06</v>
+        <v>1.298387485082486e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>1.170935400196527e-06</v>
+        <v>1.298387485082486e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>0.874236994692656</v>
+        <v>1.088079137279348</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.5346053564667317, 1.2138686329185804]</t>
+          <t>[0.7232895999255788, 1.4528686746331179]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.965741773110821e-06</v>
+        <v>3.042475591463756e-07</v>
       </c>
       <c r="S10" t="n">
-        <v>4.965741773110821e-06</v>
+        <v>3.042475591463756e-07</v>
       </c>
       <c r="T10" t="n">
-        <v>55.28417004724332</v>
+        <v>52.24621975901135</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[46.44432722495153, 64.12401286953511]</t>
+          <t>[43.19718698991704, 61.295252528105664]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="W10" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="X10" t="n">
-        <v>20.91031031031061</v>
+        <v>20.01747747747776</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.59733733733762</v>
+        <v>18.61189189189216</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.22328328328361</v>
+        <v>21.42306306306337</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.86000000000045</v>
+        <v>24.97000000000046</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.235366846596975e-07</v>
+        <v>4.874384229580642e-10</v>
       </c>
       <c r="I11" t="n">
-        <v>1.235366846596975e-07</v>
+        <v>4.874384229580642e-10</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>39.0260087127777</v>
+        <v>45.04142435702662</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[23.004776325933, 55.04724109962239]</t>
+          <t>[30.257748210868357, 59.825100503184885]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.256572327834604e-05</v>
+        <v>1.958515207789446e-07</v>
       </c>
       <c r="O11" t="n">
-        <v>1.256572327834604e-05</v>
+        <v>1.958515207789446e-07</v>
       </c>
       <c r="P11" t="n">
-        <v>0.735868549489501</v>
+        <v>0.6100790538502707</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.3333421634439606, 1.1383949355350413]</t>
+          <t>[0.2830263651882712, 0.9371317425122703]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.0006175057258730465</v>
+        <v>0.0004922155712134835</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0006175057258730465</v>
+        <v>0.0004922155712134835</v>
       </c>
       <c r="T11" t="n">
-        <v>50.96921992506295</v>
+        <v>51.78260860260734</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[42.856927266496825, 59.08151258362908]</t>
+          <t>[44.31116237358072, 59.25405483163396]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>21.94846846846886</v>
+        <v>22.5454854854859</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.3558358358362</v>
+        <v>21.24574574574614</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.54110110110153</v>
+        <v>23.84522522522566</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.86000000000045</v>
+        <v>24.97000000000046</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.272186439000734e-09</v>
+        <v>5.986391649281941e-06</v>
       </c>
       <c r="I12" t="n">
-        <v>2.272186439000734e-09</v>
+        <v>5.986391649281941e-06</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>47.76814648610461</v>
+        <v>38.06553166097213</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[32.23489611335357, 63.301396858855654]</t>
+          <t>[20.917162992976145, 55.21390032896812]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.608948887454886e-07</v>
+        <v>5.230789679044889e-05</v>
       </c>
       <c r="O12" t="n">
-        <v>1.608948887454886e-07</v>
+        <v>5.230789679044889e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4213948103914236</v>
+        <v>0.4591316590831926</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[0.06918422260157708, 0.77360539818127]</t>
+          <t>[-0.031447373909808896, 0.9497106920761942]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.02011576530192438</v>
+        <v>0.06589800617748209</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02011576530192438</v>
+        <v>0.06589800617748209</v>
       </c>
       <c r="T12" t="n">
-        <v>54.01085507295461</v>
+        <v>51.58194739538654</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[45.642582447039366, 62.37912769886986]</t>
+          <t>[42.13648620104104, 61.02740858973205]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2.420286193682841e-14</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>2.420286193682841e-14</v>
       </c>
       <c r="X12" t="n">
-        <v>23.19271271271313</v>
+        <v>23.1453653653658</v>
       </c>
       <c r="Y12" t="n">
-        <v>21.79915915915955</v>
+        <v>21.19575575575615</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.58626626626671</v>
+        <v>25.09497497497545</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.86000000000045</v>
+        <v>24.97000000000046</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>5.532439241173748e-07</v>
+        <v>1.34885071001456e-05</v>
       </c>
       <c r="I13" t="n">
-        <v>5.532439241173748e-07</v>
+        <v>1.34885071001456e-05</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>40.92468366799332</v>
+        <v>34.47087187557432</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[26.19951713304191, 55.649850202944734]</t>
+          <t>[19.147731764809045, 49.794011986339605]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.230268714902394e-06</v>
+        <v>4.305941177640271e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>1.230268714902394e-06</v>
+        <v>4.305941177640271e-05</v>
       </c>
       <c r="P13" t="n">
-        <v>0.09434212172942313</v>
+        <v>0.2075526678047304</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.32076321388003937, 0.5094474573388856]</t>
+          <t>[-0.32076321388004025, 0.735868549489501]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.6493341617631088</v>
+        <v>0.4329461382438606</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6493341617631088</v>
+        <v>0.4329461382438606</v>
       </c>
       <c r="T13" t="n">
-        <v>56.85612542833497</v>
+        <v>47.97365621659724</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[47.85081062116585, 65.86144023550409]</t>
+          <t>[39.055818281932616, 56.89149415126187]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>3.97459842815806e-14</v>
       </c>
       <c r="W13" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>3.97459842815806e-14</v>
       </c>
       <c r="X13" t="n">
-        <v>24.48672672672717</v>
+        <v>24.14516516516562</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.84432432432473</v>
+        <v>22.045585585586</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.1291291291296</v>
+        <v>26.24474474474524</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.86000000000045</v>
+        <v>24.97000000000046</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>4.284200574122821e-05</v>
+        <v>2.310213798040195e-09</v>
       </c>
       <c r="I14" t="n">
-        <v>4.284200574122821e-05</v>
+        <v>2.310213798040195e-09</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>30.03030723161893</v>
+        <v>41.06385855213883</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[15.907900064142112, 44.15271439909575]</t>
+          <t>[28.301386069947426, 53.82633103433024]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>9.566861726773013e-05</v>
+        <v>6.027551879839166e-08</v>
       </c>
       <c r="O14" t="n">
-        <v>9.566861726773013e-05</v>
+        <v>6.027551879839166e-08</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.1132105460753081</v>
+        <v>-0.2893158399702314</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.6666843268879239, 0.44026323473730766]</t>
+          <t>[-0.6289474781961548, 0.0503157982556921]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.6823131496536941</v>
+        <v>0.09309222275284945</v>
       </c>
       <c r="S14" t="n">
-        <v>0.6823131496536941</v>
+        <v>0.09309222275284945</v>
       </c>
       <c r="T14" t="n">
-        <v>48.38536594596226</v>
+        <v>57.76811870197385</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[40.02619787532472, 56.74453401659981]</t>
+          <t>[50.54677148011936, 64.98946592382833]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>3.552713678800501e-15</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.4479279279279353</v>
+        <v>1.149769769769794</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.741941941941972</v>
+        <v>-0.1999599599599606</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.637797797797843</v>
+        <v>2.499499499499548</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.86000000000045</v>
+        <v>24.97000000000046</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.031052924733601e-07</v>
+        <v>2.339758644387402e-06</v>
       </c>
       <c r="I15" t="n">
-        <v>2.031052924733601e-07</v>
+        <v>2.339758644387402e-06</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>42.85851686662842</v>
+        <v>40.31641143028034</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[27.086051667063096, 58.630982066193745]</t>
+          <t>[22.84891395548052, 57.78390890508016]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>1.877955540185994e-06</v>
+        <v>2.933517397796237e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>1.877955540185994e-06</v>
+        <v>2.933517397796237e-05</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.2264210921506153</v>
+        <v>-0.3647895373537695</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.6541053773240009, 0.20126319302277018]</t>
+          <t>[-0.8427896207828471, 0.11321054607530812]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.2919801675100822</v>
+        <v>0.131276318988542</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2919801675100822</v>
+        <v>0.131276318988542</v>
       </c>
       <c r="T15" t="n">
-        <v>49.74741683284037</v>
+        <v>56.29848548200786</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[40.690640455253295, 58.80419321042745]</t>
+          <t>[46.69209554087249, 65.90487542314324]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.998401444325282e-14</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="W15" t="n">
-        <v>1.998401444325282e-14</v>
+        <v>2.220446049250313e-15</v>
       </c>
       <c r="X15" t="n">
-        <v>0.8958558558558671</v>
+        <v>1.449709709709737</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.7963163163163365</v>
+        <v>-0.4499099099099182</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.588028028028071</v>
+        <v>3.349329329329391</v>
       </c>
     </row>
     <row r="16">
@@ -1769,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.86000000000045</v>
+        <v>24.97000000000046</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1.15608267403644e-09</v>
+        <v>8.065793410949595e-08</v>
       </c>
       <c r="I16" t="n">
-        <v>1.15608267403644e-09</v>
+        <v>8.065793410949595e-08</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>44.19356414250124</v>
+        <v>43.45466492768705</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[30.504334173518643, 57.88279411148385]</t>
+          <t>[26.582152151626005, 60.32717770374809]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>5.594815988274604e-08</v>
+        <v>4.919095347277747e-06</v>
       </c>
       <c r="O16" t="n">
-        <v>5.594815988274604e-08</v>
+        <v>4.919095347277747e-06</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.3270526886620004</v>
+        <v>-0.4905790329930007</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.6792632764518469, 0.02515789912784605]</t>
+          <t>[-0.8931054190385401, -0.08805264694746118]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.06796374235307101</v>
+        <v>0.01803227364866222</v>
       </c>
       <c r="S16" t="n">
-        <v>0.06796374235307101</v>
+        <v>0.01803227364866222</v>
       </c>
       <c r="T16" t="n">
-        <v>58.32326628397105</v>
+        <v>51.56064013419633</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[50.727767162637285, 65.91876540530481]</t>
+          <t>[42.677334758467644, 60.44394550992501]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="X16" t="n">
-        <v>1.294014014014039</v>
+        <v>1.949609609609645</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.09953953953953909</v>
+        <v>0.3499299299299341</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.687567567567616</v>
+        <v>3.549289289289356</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_5_sine_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_05/cosinor_per_day_fixed_period_5_sine_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.21000000000035</v>
+        <v>24.34000000000037</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.11659195117997e-08</v>
+        <v>2.62333821332561e-10</v>
       </c>
       <c r="I2" t="n">
-        <v>3.11659195117997e-08</v>
+        <v>2.62333821332561e-10</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>45.06321250878253</v>
+        <v>43.46883035086367</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[30.647067437304514, 59.479357580260555]</t>
+          <t>[32.563497267841576, 54.37416343388576]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.134454541418251e-07</v>
+        <v>3.135856019298444e-10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.134454541418251e-07</v>
+        <v>3.135856019298444e-10</v>
       </c>
       <c r="P2" t="n">
-        <v>1.452868674633118</v>
+        <v>1.553500271144503</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0629212381515023, 1.8428161111147334]</t>
+          <t>[1.2641844311742716, 1.8428161111147343]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.833227791792069e-09</v>
+        <v>4.218847493575595e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>1.833227791792069e-09</v>
+        <v>4.218847493575595e-14</v>
       </c>
       <c r="T2" t="n">
-        <v>53.91767366408676</v>
+        <v>49.68154864609973</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[44.998492569914205, 62.83685475825931]</t>
+          <t>[42.48115621276509, 56.88194107943438]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>18.61189189189216</v>
+        <v>18.32200200200228</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.10936936936961</v>
+        <v>17.2012412412415</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.1144144144147</v>
+        <v>19.44276276276305</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.21000000000035</v>
+        <v>24.34000000000037</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.228682530607372e-06</v>
+        <v>5.979317041493459e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>1.228682530607372e-06</v>
+        <v>5.979317041493459e-11</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>40.94205782540948</v>
+        <v>52.13733965820575</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[25.056615455124962, 56.82750019569399]</t>
+          <t>[39.80906154352094, 64.46561777289055]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.857616459075231e-06</v>
+        <v>6.153988429957735e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>4.857616459075231e-06</v>
+        <v>6.153988429957735e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>1.402552876377426</v>
+        <v>1.578658170272349</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.9497106920761942, 1.8553950606786573]</t>
+          <t>[1.3019212798660407, 1.8553950606786573]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.382440741881652e-07</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="S3" t="n">
-        <v>1.382440741881652e-07</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="T3" t="n">
-        <v>53.71703637616562</v>
+        <v>49.55700745994518</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[44.15400530187378, 63.28006745045745]</t>
+          <t>[41.35407685914451, 57.75993806074585]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>9.547918011776346e-15</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="W3" t="n">
-        <v>9.547918011776346e-15</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="X3" t="n">
-        <v>18.80576576576603</v>
+        <v>18.22454454454482</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.06090090090114</v>
+        <v>17.15251251251277</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.55063063063092</v>
+        <v>19.29657657657686</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.21000000000035</v>
+        <v>24.34000000000037</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.372602620592801e-06</v>
+        <v>1.375612956877603e-10</v>
       </c>
       <c r="I4" t="n">
-        <v>2.372602620592801e-06</v>
+        <v>1.375612956877603e-10</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>36.44838983007277</v>
+        <v>44.5411626749679</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[21.655098334084755, 51.241681326060785]</t>
+          <t>[32.469087360782666, 56.613237989153134]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.04235393507679e-05</v>
+        <v>2.347384064904645e-09</v>
       </c>
       <c r="O4" t="n">
-        <v>1.04235393507679e-05</v>
+        <v>2.347384064904645e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>1.33965812855781</v>
+        <v>1.729605565039426</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.8868159442565782, 1.7925003128590413]</t>
+          <t>[1.4277107755052718, 2.0315003545735806]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.599480593585724e-07</v>
+        <v>4.884981308350689e-15</v>
       </c>
       <c r="S4" t="n">
-        <v>3.599480593585724e-07</v>
+        <v>4.884981308350689e-15</v>
       </c>
       <c r="T4" t="n">
-        <v>50.28820577700041</v>
+        <v>49.53409684772351</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[41.48658995216078, 59.08982160184005]</t>
+          <t>[42.32249940642214, 56.74569428902488]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>5.329070518200751e-15</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>19.04810810810838</v>
+        <v>17.63979979980006</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.30324324324349</v>
+        <v>16.47031031031056</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.79297297297327</v>
+        <v>18.80928928928957</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.21000000000035</v>
+        <v>24.34000000000037</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0002470650677788289</v>
+        <v>2.475621707631603e-09</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0002470650677788289</v>
+        <v>2.475621707631603e-09</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>29.47687110298406</v>
+        <v>51.97213305948565</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[14.214234677446974, 44.73950752852114]</t>
+          <t>[36.64717280441013, 67.29709331456117]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0003280203232594037</v>
+        <v>1.818506678574749e-08</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0003280203232594037</v>
+        <v>1.818506678574749e-08</v>
       </c>
       <c r="P5" t="n">
-        <v>1.490605523324887</v>
+        <v>1.729605565039426</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.8365001460008861, 2.144710900648888]</t>
+          <t>[1.4025528763774258, 2.0566582537014266]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.555171645497346e-05</v>
+        <v>6.94999613415348e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>3.555171645497346e-05</v>
+        <v>6.94999613415348e-14</v>
       </c>
       <c r="T5" t="n">
-        <v>49.68960953094494</v>
+        <v>58.48840082595449</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[40.29341486739973, 59.08580419449014]</t>
+          <t>[49.1435184998771, 67.83328315203187]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>6.94999613415348e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>6.94999613415348e-14</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>18.46648648648675</v>
+        <v>17.63979979980006</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.94612612612636</v>
+        <v>16.3728528528531</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.98684684684715</v>
+        <v>18.90674674674703</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.21000000000035</v>
+        <v>24.34000000000037</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.213344824613216e-07</v>
+        <v>1.246655226827542e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>1.213344824613216e-07</v>
+        <v>1.246655226827542e-07</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>47.46210000351056</v>
+        <v>44.35077129329976</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[29.44065947556595, 65.48354053145518]</t>
+          <t>[27.44790851821326, 61.253634068386255]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.317466590768703e-06</v>
+        <v>3.545101640467507e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>3.317466590768703e-06</v>
+        <v>3.545101640467507e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>1.201289683354655</v>
+        <v>1.213868632918579</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.7861843477451931, 1.6163950189641163]</t>
+          <t>[0.798763297309117, 1.628973968528042]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>5.604194521779959e-07</v>
+        <v>4.550653578405672e-07</v>
       </c>
       <c r="S6" t="n">
-        <v>5.604194521779959e-07</v>
+        <v>4.550653578405672e-07</v>
       </c>
       <c r="T6" t="n">
-        <v>51.83197113636512</v>
+        <v>64.63441675562805</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[41.87709380282223, 61.78684846990801]</t>
+          <t>[55.30282971315751, 73.9660037980986]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.147970607462412e-13</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1.147970607462412e-13</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>19.58126126126155</v>
+        <v>19.63767767767797</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.98180180180206</v>
+        <v>18.0296296296299</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.18072072072103</v>
+        <v>21.24572572572604</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.21000000000035</v>
+        <v>24.34000000000037</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>4.606559578235192e-11</v>
+        <v>1.592355913793142e-09</v>
       </c>
       <c r="I7" t="n">
-        <v>4.606559578235192e-11</v>
+        <v>1.592355913793142e-09</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>52.26371521301694</v>
+        <v>53.28325478041894</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[37.45730554970193, 67.07012487633195]</t>
+          <t>[36.96952317987345, 69.59698638096444]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>7.015675151933465e-09</v>
+        <v>4.310145995667369e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>7.015675151933465e-09</v>
+        <v>4.310145995667369e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>1.17613178422681</v>
+        <v>1.352237078121733</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0.874236994692656, 1.478026573760963]</t>
+          <t>[1.0000264903318863, 1.7044476659115793]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5.768912014758598e-10</v>
+        <v>8.465987910710737e-10</v>
       </c>
       <c r="S7" t="n">
-        <v>5.768912014758598e-10</v>
+        <v>8.465987910710737e-10</v>
       </c>
       <c r="T7" t="n">
-        <v>57.61123699244754</v>
+        <v>58.16053131388924</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.511420135663165, 65.71105384923192]</t>
+          <t>[48.74907788258477, 67.57198474519372]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X7" t="n">
-        <v>19.67819819819848</v>
+        <v>19.10166166166195</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.51495495495522</v>
+        <v>17.73725725725753</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.84144144144174</v>
+        <v>20.46606606606638</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.21000000000035</v>
+        <v>24.34000000000037</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0002055471145777643</v>
+        <v>2.610406590886072e-08</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0002055471145777643</v>
+        <v>2.610406590886072e-08</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>29.32693167281067</v>
+        <v>43.12350882078387</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[12.798645897308468, 45.85521744831288]</t>
+          <t>[27.74221283912278, 58.50480480244496]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.0008536244965187123</v>
+        <v>1.041096582943268e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0008536244965187123</v>
+        <v>1.041096582943268e-06</v>
       </c>
       <c r="P8" t="n">
-        <v>1.150973885098963</v>
+        <v>1.188710733790733</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0.5471843060306538, 1.7547634641672731]</t>
+          <t>[0.798763297309117, 1.5786581702723481]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0003829937357646696</v>
+        <v>1.935870967972875e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0003829937357646696</v>
+        <v>1.935870967972875e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>52.43879152898329</v>
+        <v>59.0782923872001</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[43.22525078397597, 61.6523322739906]</t>
+          <t>[50.60001701177831, 67.55656776262188]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>6.217248937900877e-15</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>19.77513513513541</v>
+        <v>19.73513513513543</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.44864864864889</v>
+        <v>18.22454454454482</v>
       </c>
       <c r="Z8" t="n">
-        <v>22.10162162162194</v>
+        <v>21.24572572572605</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.21000000000035</v>
+        <v>24.34000000000037</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>8.283424379751381e-08</v>
+        <v>3.75234288085835e-11</v>
       </c>
       <c r="I9" t="n">
-        <v>8.283424379751381e-08</v>
+        <v>3.75234288085835e-11</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>45.52511881258334</v>
+        <v>52.91329054459337</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[28.137656002574225, 62.91258162259245]</t>
+          <t>[37.67404512365104, 68.1525359655357]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.681992286397318e-06</v>
+        <v>1.042516339921917e-08</v>
       </c>
       <c r="O9" t="n">
-        <v>3.681992286397318e-06</v>
+        <v>1.042516339921917e-08</v>
       </c>
       <c r="P9" t="n">
-        <v>1.050342288587578</v>
+        <v>1.088079137279348</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0.6352369529781168, 1.46544762419704]</t>
+          <t>[0.7736053981812709, 1.4025528763774258]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>6.671297531291032e-06</v>
+        <v>1.133560512123211e-08</v>
       </c>
       <c r="S9" t="n">
-        <v>6.671297531291032e-06</v>
+        <v>1.133560512123211e-08</v>
       </c>
       <c r="T9" t="n">
-        <v>51.81428741491254</v>
+        <v>60.83787045977193</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[42.432833964546575, 61.19574086527851]</t>
+          <t>[52.681118452266205, 68.99462246727765]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.665334536937735e-14</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1.665334536937735e-14</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>20.16288288288317</v>
+        <v>20.12496496496527</v>
       </c>
       <c r="Y9" t="n">
-        <v>18.56342342342369</v>
+        <v>18.90674674674703</v>
       </c>
       <c r="Z9" t="n">
-        <v>21.76234234234265</v>
+        <v>21.3431831831835</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.21000000000035</v>
+        <v>24.34000000000037</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.587397535640633e-08</v>
+        <v>9.986388960214754e-08</v>
       </c>
       <c r="I10" t="n">
-        <v>1.587397535640633e-08</v>
+        <v>9.986388960214754e-08</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>47.02724647304498</v>
+        <v>40.6154006822799</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[30.058189060699412, 63.99630388539055]</t>
+          <t>[24.66850713172279, 56.56229423283702]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.298387485082486e-06</v>
+        <v>5.964773827971115e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>1.298387485082486e-06</v>
+        <v>5.964773827971115e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>1.088079137279348</v>
+        <v>0.9748685912040402</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.7232895999255788, 1.4528686746331179]</t>
+          <t>[0.5975001042863477, 1.3522370781217328]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.042475591463756e-07</v>
+        <v>4.664496336070911e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>3.042475591463756e-07</v>
+        <v>4.664496336070911e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>52.24621975901135</v>
+        <v>57.20412850402119</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[43.19718698991704, 61.295252528105664]</t>
+          <t>[48.77114202098407, 65.63711498705831]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>20.01747747747776</v>
+        <v>20.56352352352383</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.61189189189216</v>
+        <v>19.10166166166195</v>
       </c>
       <c r="Z10" t="n">
-        <v>21.42306306306337</v>
+        <v>22.02538538538571</v>
       </c>
     </row>
     <row r="11">
@@ -1355,53 +1355,53 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.97000000000046</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.874384229580642e-10</v>
+        <v>1.20761334265751e-09</v>
       </c>
       <c r="I11" t="n">
-        <v>4.874384229580642e-10</v>
+        <v>1.20761334265751e-09</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>45.04142435702662</v>
+        <v>44.61540468783834</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[30.257748210868357, 59.825100503184885]</t>
+          <t>[30.103031187288323, 59.12777818838835]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.958515207789446e-07</v>
+        <v>1.619164802235673e-07</v>
       </c>
       <c r="O11" t="n">
-        <v>1.958515207789446e-07</v>
+        <v>1.619164802235673e-07</v>
       </c>
       <c r="P11" t="n">
-        <v>0.6100790538502707</v>
+        <v>0.9748685912040393</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[0.2830263651882712, 0.9371317425122703]</t>
+          <t>[0.6226580034141929, 1.3270791789938858]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.0004922155712134835</v>
+        <v>1.329789415027705e-06</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0004922155712134835</v>
+        <v>1.329789415027705e-06</v>
       </c>
       <c r="T11" t="n">
-        <v>51.78260860260734</v>
+        <v>54.24094672437824</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.31116237358072, 59.25405483163396]</t>
+          <t>[46.482133656885495, 61.999759791870986]</t>
         </is>
       </c>
       <c r="V11" t="n">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>22.5454854854859</v>
+        <v>21.13801801801842</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.24574574574614</v>
+        <v>19.73549549549587</v>
       </c>
       <c r="Z11" t="n">
-        <v>23.84522522522566</v>
+        <v>22.54054054054097</v>
       </c>
     </row>
     <row r="12">
@@ -1425,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.97000000000046</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>5.986391649281941e-06</v>
+        <v>1.110287917160946e-07</v>
       </c>
       <c r="I12" t="n">
-        <v>5.986391649281941e-06</v>
+        <v>1.110287917160946e-07</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>38.06553166097213</v>
+        <v>40.18196527007377</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[20.917162992976145, 55.21390032896812]</t>
+          <t>[24.61660394207489, 55.74732659807265]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>5.230789679044889e-05</v>
+        <v>4.722702240389509e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>5.230789679044889e-05</v>
+        <v>4.722702240389509e-06</v>
       </c>
       <c r="P12" t="n">
-        <v>0.4591316590831926</v>
+        <v>0.6226580034141929</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-0.031447373909808896, 0.9497106920761942]</t>
+          <t>[0.2201316173686534, 1.0251843894597323]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.06589800617748209</v>
+        <v>0.003192444664033012</v>
       </c>
       <c r="S12" t="n">
-        <v>0.06589800617748209</v>
+        <v>0.003192444664033012</v>
       </c>
       <c r="T12" t="n">
-        <v>51.58194739538654</v>
+        <v>50.23938802244916</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[42.13648620104104, 61.02740858973205]</t>
+          <t>[41.98056431902752, 58.4982117258708]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>2.420286193682841e-14</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="W12" t="n">
-        <v>2.420286193682841e-14</v>
+        <v>6.661338147750939e-16</v>
       </c>
       <c r="X12" t="n">
-        <v>23.1453653653658</v>
+        <v>22.54054054054097</v>
       </c>
       <c r="Y12" t="n">
-        <v>21.19575575575615</v>
+        <v>20.93765765765805</v>
       </c>
       <c r="Z12" t="n">
-        <v>25.09497497497545</v>
+        <v>24.14342342342388</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.97000000000046</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.34885071001456e-05</v>
+        <v>1.197840202582512e-07</v>
       </c>
       <c r="I13" t="n">
-        <v>1.34885071001456e-05</v>
+        <v>1.197840202582512e-07</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>34.47087187557432</v>
+        <v>38.46635608053756</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[19.147731764809045, 49.794011986339605]</t>
+          <t>[24.38366979109292, 52.549042369982196]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.305941177640271e-05</v>
+        <v>1.705005912233659e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>4.305941177640271e-05</v>
+        <v>1.705005912233659e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>0.2075526678047304</v>
+        <v>0.2578684660604234</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-0.32076321388004025, 0.735868549489501]</t>
+          <t>[-0.1320789704211931, 0.6478159025420398]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.4329461382438606</v>
+        <v>0.1895976772625756</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4329461382438606</v>
+        <v>0.1895976772625756</v>
       </c>
       <c r="T13" t="n">
-        <v>47.97365621659724</v>
+        <v>52.77381359541823</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[39.055818281932616, 56.89149415126187]</t>
+          <t>[44.90010978978097, 60.64751740105548]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.97459842815806e-14</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>3.97459842815806e-14</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>24.14516516516562</v>
+        <v>23.99315315315361</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.045585585586</v>
+        <v>22.44036036036078</v>
       </c>
       <c r="Z13" t="n">
-        <v>26.24474474474524</v>
+        <v>25.54594594594643</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.97000000000046</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.310213798040195e-09</v>
+        <v>0.0002181820317317396</v>
       </c>
       <c r="I14" t="n">
-        <v>2.310213798040195e-09</v>
+        <v>0.0002181820317317396</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>41.06385855213883</v>
+        <v>28.15579357176254</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[28.301386069947426, 53.82633103433024]</t>
+          <t>[13.027440437522209, 43.284146706002865]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>6.027551879839166e-08</v>
+        <v>0.000505184813106796</v>
       </c>
       <c r="O14" t="n">
-        <v>6.027551879839166e-08</v>
+        <v>0.000505184813106796</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.2893158399702314</v>
+        <v>-0.1257894956392311</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-0.6289474781961548, 0.0503157982556921]</t>
+          <t>[-0.767315923399309, 0.5157369321208467]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.09309222275284945</v>
+        <v>0.6947660363560528</v>
       </c>
       <c r="S14" t="n">
-        <v>0.09309222275284945</v>
+        <v>0.6947660363560528</v>
       </c>
       <c r="T14" t="n">
-        <v>57.76811870197385</v>
+        <v>52.61289202308522</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[50.54677148011936, 64.98946592382833]</t>
+          <t>[43.896076908553106, 61.329707137617326]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X14" t="n">
-        <v>1.149769769769794</v>
+        <v>0.5009009009009091</v>
       </c>
       <c r="Y14" t="n">
-        <v>-0.1999599599599606</v>
+        <v>-2.053693693693734</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.499499499499548</v>
+        <v>3.055495495495552</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.97000000000046</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>2.339758644387402e-06</v>
+        <v>1.162165153001382e-08</v>
       </c>
       <c r="I15" t="n">
-        <v>2.339758644387402e-06</v>
+        <v>1.162165153001382e-08</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>40.31641143028034</v>
+        <v>47.83151307521729</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[22.84891395548052, 57.78390890508016]</t>
+          <t>[33.101760953096075, 62.561265197338514]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>2.933517397796237e-05</v>
+        <v>4.909962436627779e-08</v>
       </c>
       <c r="O15" t="n">
-        <v>2.933517397796237e-05</v>
+        <v>4.909962436627779e-08</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.3647895373537695</v>
+        <v>-0.07547369738353815</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-0.8427896207828471, 0.11321054607530812]</t>
+          <t>[-0.4151053356094625, 0.2641579408423862]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.131276318988542</v>
+        <v>0.6566046310541256</v>
       </c>
       <c r="S15" t="n">
-        <v>0.131276318988542</v>
+        <v>0.6566046310541256</v>
       </c>
       <c r="T15" t="n">
-        <v>56.29848548200786</v>
+        <v>60.22848219737348</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[46.69209554087249, 65.90487542314324]</t>
+          <t>[51.32553621546488, 69.13142817928208]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>2.220446049250313e-15</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1.449709709709737</v>
+        <v>0.3005405405405419</v>
       </c>
       <c r="Y15" t="n">
-        <v>-0.4499099099099182</v>
+        <v>-1.051891891891919</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.349329329329391</v>
+        <v>1.652972972973003</v>
       </c>
     </row>
     <row r="16">
@@ -1769,7 +1769,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1785,69 +1785,69 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>24.97000000000046</v>
+        <v>25.02000000000047</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>8.065793410949595e-08</v>
+        <v>3.739025400406604e-08</v>
       </c>
       <c r="I16" t="n">
-        <v>8.065793410949595e-08</v>
+        <v>3.739025400406604e-08</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>43.45466492768705</v>
+        <v>41.21650965430041</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>[26.582152151626005, 60.32717770374809]</t>
+          <t>[27.334106880568193, 55.09891242803263]</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4.919095347277747e-06</v>
+        <v>3.345289876222068e-07</v>
       </c>
       <c r="O16" t="n">
-        <v>4.919095347277747e-06</v>
+        <v>3.345289876222068e-07</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.4905790329930007</v>
+        <v>-0.3396316382259235</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[-0.8931054190385401, -0.08805264694746118]</t>
+          <t>[-0.7421580242714629, 0.06289474781961601]</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>0.01803227364866222</v>
+        <v>0.09614776423819027</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01803227364866222</v>
+        <v>0.09614776423819027</v>
       </c>
       <c r="T16" t="n">
-        <v>51.56064013419633</v>
+        <v>51.25488106729185</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>[42.677334758467644, 60.44394550992501]</t>
+          <t>[43.13404777007521, 59.37571436450848]</t>
         </is>
       </c>
       <c r="V16" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W16" t="n">
-        <v>3.108624468950438e-15</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X16" t="n">
-        <v>1.949609609609645</v>
+        <v>1.352432432432458</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3499299299299341</v>
+        <v>-0.2504504504504566</v>
       </c>
       <c r="Z16" t="n">
-        <v>3.549289289289356</v>
+        <v>2.955315315315373</v>
       </c>
     </row>
   </sheetData>
